--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Lpar3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,22 +567,22 @@
         <v>0.322463</v>
       </c>
       <c r="O2">
-        <v>0.111695032377957</v>
+        <v>0.1656403066315349</v>
       </c>
       <c r="P2">
-        <v>0.1586806295398324</v>
+        <v>0.2294568116288535</v>
       </c>
       <c r="Q2">
-        <v>20.96861216147516</v>
+        <v>19.50841037522417</v>
       </c>
       <c r="R2">
-        <v>125.811672968851</v>
+        <v>117.050462251345</v>
       </c>
       <c r="S2">
-        <v>0.02949425193877049</v>
+        <v>0.03709492252915356</v>
       </c>
       <c r="T2">
-        <v>0.03145536058096188</v>
+        <v>0.03796016664730612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8548439999999999</v>
+        <v>0.5414345</v>
       </c>
       <c r="N3">
-        <v>1.709688</v>
+        <v>1.082869</v>
       </c>
       <c r="O3">
-        <v>0.888304967622043</v>
+        <v>0.8343596933684652</v>
       </c>
       <c r="P3">
-        <v>0.8413193704601676</v>
+        <v>0.7705431883711465</v>
       </c>
       <c r="Q3">
-        <v>166.762316556294</v>
+        <v>98.26733377755878</v>
       </c>
       <c r="R3">
-        <v>667.0492662251759</v>
+        <v>393.0693351102351</v>
       </c>
       <c r="S3">
-        <v>0.2345663003601621</v>
+        <v>0.1868537242918815</v>
       </c>
       <c r="T3">
-        <v>0.1667752657543456</v>
+        <v>0.1274747418996962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>187.223767</v>
       </c>
       <c r="I4">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J4">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,10 +691,10 @@
         <v>0.322463</v>
       </c>
       <c r="O4">
-        <v>0.111695032377957</v>
+        <v>0.1656403066315349</v>
       </c>
       <c r="P4">
-        <v>0.1586806295398324</v>
+        <v>0.2294568116288535</v>
       </c>
       <c r="Q4">
         <v>6.708081953124556</v>
@@ -703,10 +703,10 @@
         <v>60.372737578121</v>
       </c>
       <c r="S4">
-        <v>0.009435524756134185</v>
+        <v>0.01275530786897901</v>
       </c>
       <c r="T4">
-        <v>0.01509435638972671</v>
+        <v>0.01957924074232539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>187.223767</v>
       </c>
       <c r="I5">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J5">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8548439999999999</v>
+        <v>0.5414345</v>
       </c>
       <c r="N5">
-        <v>1.709688</v>
+        <v>1.082869</v>
       </c>
       <c r="O5">
-        <v>0.888304967622043</v>
+        <v>0.8343596933684652</v>
       </c>
       <c r="P5">
-        <v>0.8413193704601676</v>
+        <v>0.7705431883711465</v>
       </c>
       <c r="Q5">
-        <v>53.349037959116</v>
+        <v>33.78980222458717</v>
       </c>
       <c r="R5">
-        <v>320.094227754696</v>
+        <v>202.738813347523</v>
       </c>
       <c r="S5">
-        <v>0.0750402532194339</v>
+        <v>0.06425075501735128</v>
       </c>
       <c r="T5">
-        <v>0.08002977081785843</v>
+        <v>0.06574941262532803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H6">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I6">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J6">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,22 +815,22 @@
         <v>0.322463</v>
       </c>
       <c r="O6">
-        <v>0.111695032377957</v>
+        <v>0.1656403066315349</v>
       </c>
       <c r="P6">
-        <v>0.1586806295398324</v>
+        <v>0.2294568116288535</v>
       </c>
       <c r="Q6">
-        <v>15.35591500229356</v>
+        <v>18.48766709510944</v>
       </c>
       <c r="R6">
-        <v>138.203235020642</v>
+        <v>166.389003855985</v>
       </c>
       <c r="S6">
-        <v>0.02159948509420705</v>
+        <v>0.03515399591495347</v>
       </c>
       <c r="T6">
-        <v>0.03455349164704312</v>
+        <v>0.0539609514833836</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H7">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I7">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J7">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8548439999999999</v>
+        <v>0.5414345</v>
       </c>
       <c r="N7">
-        <v>1.709688</v>
+        <v>1.082869</v>
       </c>
       <c r="O7">
-        <v>0.888304967622043</v>
+        <v>0.8343596933684652</v>
       </c>
       <c r="P7">
-        <v>0.8413193704601676</v>
+        <v>0.7705431883711465</v>
       </c>
       <c r="Q7">
-        <v>122.124818700632</v>
+        <v>93.12566827642584</v>
       </c>
       <c r="R7">
-        <v>732.7489122037919</v>
+        <v>558.7540096585551</v>
       </c>
       <c r="S7">
-        <v>0.1717796172200129</v>
+        <v>0.1770769316282632</v>
       </c>
       <c r="T7">
-        <v>0.1832014526536373</v>
+        <v>0.1812072751660194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H8">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I8">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J8">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -939,22 +939,22 @@
         <v>0.322463</v>
       </c>
       <c r="O8">
-        <v>0.111695032377957</v>
+        <v>0.1656403066315349</v>
       </c>
       <c r="P8">
-        <v>0.1586806295398324</v>
+        <v>0.2294568116288535</v>
       </c>
       <c r="Q8">
-        <v>5.6986859310045</v>
+        <v>5.980914255105501</v>
       </c>
       <c r="R8">
-        <v>34.192115586027</v>
+        <v>35.88548553063301</v>
       </c>
       <c r="S8">
-        <v>0.00801571783934169</v>
+        <v>0.01137261041157995</v>
       </c>
       <c r="T8">
-        <v>0.008548692656290244</v>
+        <v>0.0116378780977148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H9">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I9">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J9">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8548439999999999</v>
+        <v>0.5414345</v>
       </c>
       <c r="N9">
-        <v>1.709688</v>
+        <v>1.082869</v>
       </c>
       <c r="O9">
-        <v>0.888304967622043</v>
+        <v>0.8343596933684652</v>
       </c>
       <c r="P9">
-        <v>0.8413193704601676</v>
+        <v>0.7705431883711465</v>
       </c>
       <c r="Q9">
-        <v>45.321362227638</v>
+        <v>30.12692916014475</v>
       </c>
       <c r="R9">
-        <v>181.285448910552</v>
+        <v>120.507716640579</v>
       </c>
       <c r="S9">
-        <v>0.06374860031061742</v>
+        <v>0.05728586193040987</v>
       </c>
       <c r="T9">
-        <v>0.04532488145972578</v>
+        <v>0.03908137497261494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H10">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I10">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J10">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1063,22 +1063,22 @@
         <v>0.322463</v>
       </c>
       <c r="O10">
-        <v>0.111695032377957</v>
+        <v>0.1656403066315349</v>
       </c>
       <c r="P10">
-        <v>0.1586806295398324</v>
+        <v>0.2294568116288535</v>
       </c>
       <c r="Q10">
-        <v>15.45498882104733</v>
+        <v>21.861520646257</v>
       </c>
       <c r="R10">
-        <v>139.094899389426</v>
+        <v>196.753685816313</v>
       </c>
       <c r="S10">
-        <v>0.02173884139248552</v>
+        <v>0.04156932313523141</v>
       </c>
       <c r="T10">
-        <v>0.03477642504881293</v>
+        <v>0.06380839988500882</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H11">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I11">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J11">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8548439999999999</v>
+        <v>0.5414345</v>
       </c>
       <c r="N11">
-        <v>1.709688</v>
+        <v>1.082869</v>
       </c>
       <c r="O11">
-        <v>0.888304967622043</v>
+        <v>0.8343596933684652</v>
       </c>
       <c r="P11">
-        <v>0.8413193704601676</v>
+        <v>0.7705431883711465</v>
       </c>
       <c r="Q11">
-        <v>122.912747791896</v>
+        <v>110.1203688517365</v>
       </c>
       <c r="R11">
-        <v>737.4764867513759</v>
+        <v>660.722213110419</v>
       </c>
       <c r="S11">
-        <v>0.1728879108423406</v>
+        <v>0.2093920761798636</v>
       </c>
       <c r="T11">
-        <v>0.1843834380653125</v>
+        <v>0.2142761748637196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H12">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I12">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J12">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,22 +1187,22 @@
         <v>0.322463</v>
       </c>
       <c r="O12">
-        <v>0.111695032377957</v>
+        <v>0.1656403066315349</v>
       </c>
       <c r="P12">
-        <v>0.1586806295398324</v>
+        <v>0.2294568116288535</v>
       </c>
       <c r="Q12">
-        <v>15.22206387145278</v>
+        <v>14.56449409722278</v>
       </c>
       <c r="R12">
-        <v>136.998574843075</v>
+        <v>131.080446875005</v>
       </c>
       <c r="S12">
-        <v>0.02141121135701807</v>
+        <v>0.02769414677163747</v>
       </c>
       <c r="T12">
-        <v>0.03425230321699755</v>
+        <v>0.04251017477311475</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H13">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I13">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J13">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8548439999999999</v>
+        <v>0.5414345</v>
       </c>
       <c r="N13">
-        <v>1.709688</v>
+        <v>1.082869</v>
       </c>
       <c r="O13">
-        <v>0.888304967622043</v>
+        <v>0.8343596933684652</v>
       </c>
       <c r="P13">
-        <v>0.8413193704601676</v>
+        <v>0.7705431883711465</v>
       </c>
       <c r="Q13">
-        <v>121.0603073977</v>
+        <v>73.36394791913584</v>
       </c>
       <c r="R13">
-        <v>726.3618443862</v>
+        <v>440.1836875148151</v>
       </c>
       <c r="S13">
-        <v>0.1702822856694761</v>
+        <v>0.1395003443206956</v>
       </c>
       <c r="T13">
-        <v>0.1816045617092879</v>
+        <v>0.1427542088437681</v>
       </c>
     </row>
   </sheetData>
